--- a/backend/auxiliar/Imagen.plate-coefs.xlsx
+++ b/backend/auxiliar/Imagen.plate-coefs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,12 +441,32 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>AR_deg</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>DEC</t>
+          <t>DEC_deg</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>AR_rad</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>DEC_rad</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>variance_deg</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>variance_rad</t>
         </is>
       </c>
     </row>
@@ -460,10 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-6.009107933910965e-17</v>
+        <v>-3.446445297469252e-15</v>
       </c>
       <c r="D2" t="n">
-        <v>9.044221533181604e-16</v>
+        <v>5.181852886285393e-14</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-6.015181793071385e-17</v>
+      </c>
+      <c r="F2" t="n">
+        <v>9.044039421965141e-16</v>
+      </c>
+      <c r="G2" t="n">
+        <v>4.237812140343803e-20</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1.290911399732318e-23</v>
       </c>
     </row>
     <row r="3">
@@ -476,10 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-1.192668887859101e-15</v>
+        <v>-6.833333893251918e-14</v>
       </c>
       <c r="D3" t="n">
-        <v>2.543879735838083e-16</v>
+        <v>1.457903600538397e-14</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-1.192641753253687e-15</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2.544521800607519e-16</v>
+      </c>
+      <c r="G3" t="n">
+        <v>8.422042637705108e-20</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2.565500897631375e-23</v>
       </c>
     </row>
     <row r="4">
@@ -492,10 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-4.984353225119534e-16</v>
+        <v>-2.85724423910567e-14</v>
       </c>
       <c r="D4" t="n">
-        <v>1.578309590864074e-15</v>
+        <v>9.042249602572488e-14</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-4.986831950603407e-16</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.578170273520386e-15</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1.553162016392468e-19</v>
+      </c>
+      <c r="H4" t="n">
+        <v>4.73120205944195e-23</v>
       </c>
     </row>
     <row r="5">
@@ -508,10 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-1.249806413562565e-15</v>
+        <v>-7.16091798019469e-14</v>
       </c>
       <c r="D5" t="n">
-        <v>-3.179413330367915e-16</v>
+        <v>-1.822185866997379e-14</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-1.249815962196594e-15</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-3.180314296241174e-16</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2.221808830160589e-19</v>
+      </c>
+      <c r="H5" t="n">
+        <v>6.76801673102844e-23</v>
       </c>
     </row>
     <row r="6">
@@ -524,10 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6.071520029396508e-14</v>
+        <v>1.588807720708852e-12</v>
       </c>
       <c r="D6" t="n">
-        <v>8.823762312193298e-13</v>
+        <v>5.051750024556178e-11</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2.772992590747597e-14</v>
+      </c>
+      <c r="F6" t="n">
+        <v>8.816967091620969e-13</v>
+      </c>
+      <c r="G6" t="n">
+        <v>6.735557456615668e-14</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2.05176813325939e-17</v>
       </c>
     </row>
     <row r="7">
@@ -540,10 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-2.431800498469008e-11</v>
+        <v>-1.393189389359303e-09</v>
       </c>
       <c r="D7" t="n">
-        <v>-4.327451761981606e-13</v>
+        <v>-2.365030851610907e-11</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-2.431574194816909e-11</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-4.127757527185576e-13</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1.356322859888282e-13</v>
+      </c>
+      <c r="H7" t="n">
+        <v>4.13159569976898e-17</v>
       </c>
     </row>
     <row r="8">
@@ -556,10 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3.689128000916085e-13</v>
+        <v>1.964924821667242e-11</v>
       </c>
       <c r="D8" t="n">
-        <v>-1.122165719410762e-11</v>
+        <v>-6.430609662025094e-10</v>
+      </c>
+      <c r="E8" t="n">
+        <v>3.429440769225579e-13</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-1.122353115128977e-11</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1.833020226132062e-13</v>
+      </c>
+      <c r="H8" t="n">
+        <v>5.583698917011978e-17</v>
       </c>
     </row>
     <row r="9">
@@ -572,10 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1.671566409112982e-07</v>
+        <v>9.523697778200668e-06</v>
       </c>
       <c r="D9" t="n">
-        <v>-9.48256380561783e-06</v>
+        <v>-0.0005433124394329655</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1.662198831944703e-07</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-9.48259093514752e-06</v>
+      </c>
+      <c r="G9" t="n">
+        <v>5.472926692107546e-07</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1.667148807631607e-10</v>
       </c>
     </row>
     <row r="10">
@@ -588,10 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>9.79881832040136e-06</v>
+        <v>0.000561439306738052</v>
       </c>
       <c r="D10" t="n">
-        <v>1.597176427929451e-07</v>
+        <v>9.283324573377411e-06</v>
+      </c>
+      <c r="E10" t="n">
+        <v>9.798964452693393e-06</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1.620245793367337e-07</v>
+      </c>
+      <c r="G10" t="n">
+        <v>9.144398628320329e-07</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2.785543115660056e-10</v>
       </c>
     </row>
     <row r="11">
@@ -604,10 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2.228161533080152</v>
+        <v>127.6475211903078</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2550327258022669</v>
+        <v>14.61194305973487</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2.227869526780102</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.255026516506308</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.4159559826890983</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.000126707438191598</v>
       </c>
     </row>
   </sheetData>
